--- a/in/3cam_flame_xsweep.xlsx
+++ b/in/3cam_flame_xsweep.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="951" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +42,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: Use raw data from HST cameras
+          <t>1: Use raw data from HST cameras
 0: make an auroral phantom using “TrueArc” parameters below</t>
         </r>
       </text>
@@ -51,7 +56,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Factor of downsampling in energy space</t>
+          <t>Factor of downsampling in energy space</t>
         </r>
       </text>
     </comment>
@@ -64,7 +69,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">[nm] for plotting only</t>
+          <t>[nm] for plotting only</t>
         </r>
       </text>
     </comment>
@@ -77,7 +82,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">none
+          <t>none
 bg3</t>
         </r>
       </text>
@@ -91,7 +96,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use dahlgren 2013 eigenprofiles
+          <t>1: use dahlgren 2013 eigenprofiles
 0: use locally computed Transcar profiles</t>
         </r>
       </text>
@@ -105,7 +110,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Use this normally</t>
+          <t>Use this normally</t>
         </r>
       </text>
     </comment>
@@ -118,7 +123,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Arbitrary: just spread angles across pixels linearly
+          <t>Arbitrary: just spread angles across pixels linearly
 Astrometry: calibrated pixels to skymap</t>
         </r>
       </text>
@@ -132,7 +137,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">transcar
+          <t>transcar
 arb</t>
         </r>
       </text>
@@ -146,7 +151,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">ArbChapman: User-placed chapman arc(s)
+          <t>ArbChapman: User-placed chapman arc(s)
 SmartChapman: two-step JLS algorithm (not yet implemented)
 backproj: using simple inv(L)*d
 tsvd: truncated SVD</t>
@@ -162,11 +167,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">LineLength: To be consistent with definition of Rayleighs</t>
+          <t>LineLength: To be consistent with definition of Rayleighs</t>
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +180,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Put Z at end for UTC—required!</t>
+          <t>Put Z at end for UTC—required!</t>
         </r>
       </text>
     </comment>
@@ -198,7 +203,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">1: use this camera (necessary when computing L)
+          <t>1: use this camera (necessary when computing L)
 0: ignore this camera</t>
         </r>
       </text>
@@ -212,7 +217,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">These two options (must) only take effort for “arbitrary” angle mapping!
+          <t>These two options (must) only take effort for “arbitrary” angle mapping!
 3.1436km: 88.3 deg
 10km: 86.5 deg
 50km: 76 deg, 30.5 deg fov, 1500km max length</t>
@@ -228,7 +233,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Factor to scale data numbers by (1: keep original data numbers)</t>
+          <t>Factor to scale data numbers by (1: keep original data numbers)</t>
         </r>
       </text>
     </comment>
@@ -241,7 +246,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Support width (pixels) for smoothing</t>
+          <t>Support width (pixels) for smoothing</t>
         </r>
       </text>
     </comment>
@@ -254,7 +259,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Photoelectron/data number</t>
+          <t>Photoelectron/data number</t>
         </r>
       </text>
     </comment>
@@ -263,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="133">
   <si>
     <t>Sim</t>
   </si>
@@ -275,12 +280,6 @@
   </si>
   <si>
     <t>Recon</t>
-  </si>
-  <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
   </si>
   <si>
     <t>Transcar</t>
@@ -674,12 +673,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+000"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="0.00E+000"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -843,7 +841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -922,13 +920,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -975,7 +966,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,12 +975,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1092,14 +1083,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1136,18 +1119,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1172,15 +1143,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1208,7 +1179,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1224,15 +1195,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1314,239 +1285,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E55" activeCellId="1" sqref="D1:D46 E55"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.91836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0816326530612"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="29.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
-        <v>35</v>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1554,111 +1499,100 @@
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1666,199 +1600,174 @@
       <c r="A31" s="4"/>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="F32" s="23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
+      <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="0"/>
+      <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="30" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="32" t="n">
         <v>-3.8</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="32" t="n">
         <v>7.1</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
+      <c r="E47" s="33"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="32" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
+      <c r="A49" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
@@ -1866,17 +1775,15 @@
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1884,22 +1791,20 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1907,21 +1812,19 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
@@ -1929,82 +1832,73 @@
       <c r="E56" s="5" t="n">
         <v>800</v>
       </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="36"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="40"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="41"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="F63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0"/>
       <c r="C65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
-        <v>74</v>
+      <c r="A66" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5"/>
     </row>
-    <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2025,29 +1919,29 @@
   </sheetPr>
   <dimension ref="A1:IQ45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1:D46"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="44" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="n">
+      <c r="D1" s="41" t="n">
         <v>2</v>
       </c>
       <c r="E1" s="0"/>
@@ -2300,7 +2194,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2560,16 +2454,16 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="47" t="n">
+      <c r="A3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="47" t="n">
+      <c r="C3" s="42" t="n">
         <v>3.1436</v>
       </c>
-      <c r="D3" s="48" t="n">
+      <c r="D3" s="43" t="n">
         <v>10</v>
       </c>
       <c r="E3" s="0"/>
@@ -2821,13 +2715,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="47" t="n">
+      <c r="A4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="42" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="47" t="n">
+      <c r="C4" s="42" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -3082,8 +2976,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>79</v>
+      <c r="A5" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3343,13 +3237,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="47" t="n">
+      <c r="A6" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="42" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="47" t="n">
+      <c r="C6" s="42" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0" t="n">
@@ -3604,13 +3498,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="47" t="n">
+      <c r="A7" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -3865,8 +3759,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>82</v>
+      <c r="A8" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4127,12 +4021,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="51" t="n">
+        <v>81</v>
+      </c>
+      <c r="B9" s="46" t="n">
         <v>250</v>
       </c>
-      <c r="C9" s="51" t="n">
+      <c r="C9" s="46" t="n">
         <v>250</v>
       </c>
       <c r="D9" s="0" t="n">
@@ -4388,10 +4282,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
+        <v>82</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4642,8 +4536,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>85</v>
+      <c r="A11" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4898,9 +4792,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="52"/>
+        <v>84</v>
+      </c>
+      <c r="B12" s="47"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5153,7 +5047,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>50</v>
@@ -5413,13 +5307,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="54" t="n">
+      <c r="A14" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="49" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="49" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5672,11 +5566,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55" t="s">
-        <v>89</v>
+      <c r="A15" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="56"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5927,11 +5821,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55" t="s">
-        <v>90</v>
+      <c r="A16" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="56"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6182,11 +6076,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
+      <c r="A17" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6438,7 +6332,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6694,7 +6588,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="60"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6946,10 +6840,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="60"/>
+        <v>91</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7201,10 +7095,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="60"/>
+        <v>92</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7456,7 +7350,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7711,7 +7605,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7966,7 +7860,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8483,7 +8377,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8494,7 +8388,7 @@
       <c r="D26" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -8744,7 +8638,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8755,7 +8649,7 @@
       <c r="D27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -9011,7 +8905,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -9019,13 +8913,13 @@
       <c r="C29" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D29" s="44" t="n">
+      <c r="D29" s="39" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -9033,13 +8927,13 @@
       <c r="C30" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="D30" s="44" t="n">
+      <c r="D30" s="39" t="n">
         <v>512</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -9047,13 +8941,13 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="44" t="n">
+      <c r="D31" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9061,13 +8955,13 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="44" t="n">
+      <c r="D32" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9081,24 +8975,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="61" t="n">
+        <v>103</v>
+      </c>
+      <c r="B35" s="56" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="61" t="n">
+      <c r="C35" s="56" t="n">
         <v>65.12657</v>
       </c>
       <c r="D35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="61" t="n">
+        <v>104</v>
+      </c>
+      <c r="B36" s="56" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="61" t="n">
+      <c r="C36" s="56" t="n">
         <v>-147.496908333</v>
       </c>
       <c r="D36" s="0"/>
@@ -9111,7 +9005,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9123,7 +9017,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9135,25 +9029,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D41" s="0"/>
     </row>
@@ -9164,47 +9058,47 @@
       <c r="D42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="62" t="n">
+      <c r="A43" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="57" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="62" t="n">
+      <c r="C43" s="57" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="D43" s="62" t="n">
+      <c r="D43" s="57" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="44" t="n">
+      <c r="D44" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="44" t="n">
+      <c r="A45" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="44" t="n">
+      <c r="D45" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9231,14 +9125,13 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I3" activeCellId="1" sqref="D1:D46 I3"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,36 +9163,36 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="n">
+      <c r="C2" s="58" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="63" t="n">
+      <c r="D2" s="58" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="63" t="n">
+      <c r="F2" s="58" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="63" t="n">
+      <c r="G2" s="58" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="63" t="n">
+      <c r="H2" s="58" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="63" t="n">
+      <c r="I2" s="58" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>2.5</v>
@@ -9328,21 +9221,21 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9371,7 +9264,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
@@ -9400,65 +9293,65 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5250</v>
@@ -9487,36 +9380,36 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="64" t="n">
+        <v>126</v>
+      </c>
+      <c r="B12" s="59" t="n">
         <v>900000000000</v>
       </c>
-      <c r="C12" s="64" t="n">
+      <c r="C12" s="59" t="n">
         <v>700000000000</v>
       </c>
-      <c r="D12" s="64" t="n">
+      <c r="D12" s="59" t="n">
         <v>500000000000</v>
       </c>
-      <c r="E12" s="64" t="n">
+      <c r="E12" s="59" t="n">
         <v>225000000000</v>
       </c>
-      <c r="F12" s="64" t="n">
+      <c r="F12" s="59" t="n">
         <v>900000000000</v>
       </c>
-      <c r="G12" s="64" t="n">
+      <c r="G12" s="59" t="n">
         <v>700000000000</v>
       </c>
-      <c r="H12" s="64" t="n">
+      <c r="H12" s="59" t="n">
         <v>500000000000</v>
       </c>
-      <c r="I12" s="64" t="n">
+      <c r="I12" s="59" t="n">
         <v>225000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.375</v>
@@ -9545,7 +9438,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -9574,7 +9467,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2.5</v>
@@ -9603,7 +9496,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -9632,7 +9525,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5500</v>
@@ -9661,7 +9554,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.3</v>
